--- a/02.시스템기획/99.data/[실습_05]20200115_system_design_table.xlsx
+++ b/02.시스템기획/99.data/[실습_05]20200115_system_design_table.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Monster_table_master" sheetId="1" r:id="rId1"/>
     <sheet name="Character_table_init" sheetId="2" r:id="rId2"/>
     <sheet name="Attack_pattern_master" sheetId="3" r:id="rId3"/>
-    <sheet name="Move_pattern_master" sheetId="4" r:id="rId4"/>
+    <sheet name="Item_master_table" sheetId="5" r:id="rId4"/>
+    <sheet name="Skill_master" sheetId="6" r:id="rId5"/>
+    <sheet name="Move_pattern_master" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
   <si>
     <t>common_dmg_min</t>
   </si>
@@ -398,12 +400,76 @@
     <t>character_int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Item_name</t>
+  </si>
+  <si>
+    <t>Item_Type</t>
+  </si>
+  <si>
+    <t>Item_get_type</t>
+  </si>
+  <si>
+    <t>Effect_type01</t>
+  </si>
+  <si>
+    <t>Effect_type03</t>
+  </si>
+  <si>
+    <t>max_count</t>
+  </si>
+  <si>
+    <t>Item_DESC_code</t>
+  </si>
+  <si>
+    <t>Effect_type01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면에 표시될 아이템명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이템타입
+01: 장비(Equipment)
+02: 소모(Consumption)
+03: 제작(Production)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드: (0.0.00)
+아이템타입.아이템획득구분.아이템no
+10000: 무기
+20000: 방어구
+30000: 재료
+40000: 제작도감
+1000 : 제작
+2000 : 채집
+3000 : 낚시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +504,21 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -488,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,6 +589,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -814,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
@@ -1341,7 +1432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1582,6 +1673,161 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19" style="11" customWidth="1"/>
+    <col min="3" max="13" width="19.125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="2:13" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
+        <v>11001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>11003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <v>11004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>11005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
+        <v>11006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
+        <v>11007</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
+        <v>11008</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
+        <v>11009</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
+        <v>11010</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
+        <v>11011</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
+        <v>11012</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
